--- a/Code/Results/Cases/Case_6_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002757941601291</v>
+        <v>0.9981412083094201</v>
       </c>
       <c r="D2">
-        <v>1.020610334145434</v>
+        <v>1.016931690533108</v>
       </c>
       <c r="E2">
-        <v>1.014617043926433</v>
+        <v>1.01105498175217</v>
       </c>
       <c r="F2">
-        <v>1.017242572314059</v>
+        <v>1.013349209758397</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046976375735229</v>
+        <v>1.045109080007268</v>
       </c>
       <c r="J2">
-        <v>1.0248564748603</v>
+        <v>1.020377658011919</v>
       </c>
       <c r="K2">
-        <v>1.031789811743586</v>
+        <v>1.028160073963808</v>
       </c>
       <c r="L2">
-        <v>1.02587642790015</v>
+        <v>1.022362421960804</v>
       </c>
       <c r="M2">
-        <v>1.028466805535654</v>
+        <v>1.024625649561911</v>
       </c>
       <c r="N2">
-        <v>1.02631188860729</v>
+        <v>1.021826711325248</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010518125739859</v>
+        <v>1.00322141757572</v>
       </c>
       <c r="D3">
-        <v>1.026564708955809</v>
+        <v>1.020742352123751</v>
       </c>
       <c r="E3">
-        <v>1.021468789088593</v>
+        <v>1.015460460657286</v>
       </c>
       <c r="F3">
-        <v>1.024883212208976</v>
+        <v>1.018445282161127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049505397906535</v>
+        <v>1.04654659290648</v>
       </c>
       <c r="J3">
-        <v>1.030726105795488</v>
+        <v>1.023624647079747</v>
       </c>
       <c r="K3">
-        <v>1.036868607940153</v>
+        <v>1.031116535231945</v>
       </c>
       <c r="L3">
-        <v>1.031834148726576</v>
+        <v>1.025899271111104</v>
       </c>
       <c r="M3">
-        <v>1.035207307461995</v>
+        <v>1.028847468985306</v>
       </c>
       <c r="N3">
-        <v>1.032189855091654</v>
+        <v>1.025078311489988</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015382263082162</v>
+        <v>1.006432897491135</v>
       </c>
       <c r="D4">
-        <v>1.030297327940762</v>
+        <v>1.023150019280432</v>
       </c>
       <c r="E4">
-        <v>1.025769941162242</v>
+        <v>1.018251862180174</v>
       </c>
       <c r="F4">
-        <v>1.029681600505446</v>
+        <v>1.021675224869754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051073678780212</v>
+        <v>1.047438890396675</v>
       </c>
       <c r="J4">
-        <v>1.034400508980897</v>
+        <v>1.025673468354215</v>
       </c>
       <c r="K4">
-        <v>1.040043341250222</v>
+        <v>1.032976847482572</v>
       </c>
       <c r="L4">
-        <v>1.035566984634748</v>
+        <v>1.028134883128212</v>
       </c>
       <c r="M4">
-        <v>1.039434521480829</v>
+        <v>1.031518902275966</v>
       </c>
       <c r="N4">
-        <v>1.035869476351047</v>
+        <v>1.02713004232567</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017391698511009</v>
+        <v>1.007765581800192</v>
       </c>
       <c r="D5">
-        <v>1.031839283858133</v>
+        <v>1.024148764131331</v>
       </c>
       <c r="E5">
-        <v>1.027548258407843</v>
+        <v>1.019411729581871</v>
       </c>
       <c r="F5">
-        <v>1.031666013295086</v>
+        <v>1.023017567402908</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051717414948344</v>
+        <v>1.047805164183452</v>
       </c>
       <c r="J5">
-        <v>1.035917247439219</v>
+        <v>1.02652272880126</v>
       </c>
       <c r="K5">
-        <v>1.041352683646492</v>
+        <v>1.033746696576986</v>
       </c>
       <c r="L5">
-        <v>1.037108632569993</v>
+        <v>1.029062511987786</v>
       </c>
       <c r="M5">
-        <v>1.041181300604792</v>
+        <v>1.032628065615787</v>
       </c>
       <c r="N5">
-        <v>1.037388368751952</v>
+        <v>1.027980508819961</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017727072995984</v>
+        <v>1.007988343730008</v>
       </c>
       <c r="D6">
-        <v>1.032096630518225</v>
+        <v>1.024315682851248</v>
       </c>
       <c r="E6">
-        <v>1.027845142715731</v>
+        <v>1.01960569194422</v>
       </c>
       <c r="F6">
-        <v>1.031997335566606</v>
+        <v>1.023242060366354</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051824608690837</v>
+        <v>1.047866150402544</v>
       </c>
       <c r="J6">
-        <v>1.036170318158417</v>
+        <v>1.026664628035024</v>
       </c>
       <c r="K6">
-        <v>1.041571081894942</v>
+        <v>1.033875251715162</v>
       </c>
       <c r="L6">
-        <v>1.037365905939104</v>
+        <v>1.029217561051995</v>
       </c>
       <c r="M6">
-        <v>1.041472863233876</v>
+        <v>1.032813498757809</v>
       </c>
       <c r="N6">
-        <v>1.037641798860599</v>
+        <v>1.028122609566913</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015409249789576</v>
+        <v>1.006450772424951</v>
       </c>
       <c r="D7">
-        <v>1.030318036699848</v>
+        <v>1.023163416761772</v>
       </c>
       <c r="E7">
-        <v>1.025793818288169</v>
+        <v>1.018267413274373</v>
       </c>
       <c r="F7">
-        <v>1.02970824276999</v>
+        <v>1.02169322148937</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051082340646962</v>
+        <v>1.047443819052214</v>
       </c>
       <c r="J7">
-        <v>1.034420883623032</v>
+        <v>1.025684863062772</v>
       </c>
       <c r="K7">
-        <v>1.040060934460479</v>
+        <v>1.032987181778697</v>
       </c>
       <c r="L7">
-        <v>1.035587690763438</v>
+        <v>1.028147325588995</v>
       </c>
       <c r="M7">
-        <v>1.039457978962112</v>
+        <v>1.031533776917998</v>
       </c>
       <c r="N7">
-        <v>1.03588987992751</v>
+        <v>1.027141453216019</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005414468536106</v>
+        <v>0.9998742177733069</v>
       </c>
       <c r="D8">
-        <v>1.022648522848744</v>
+        <v>1.018231838461491</v>
       </c>
       <c r="E8">
-        <v>1.016961173467861</v>
+        <v>1.012556436898671</v>
       </c>
       <c r="F8">
-        <v>1.019856194349661</v>
+        <v>1.015085841277665</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047845657737325</v>
+        <v>1.045602870803134</v>
       </c>
       <c r="J8">
-        <v>1.026866765989738</v>
+        <v>1.021486069334743</v>
       </c>
       <c r="K8">
-        <v>1.033530201781887</v>
+        <v>1.029170383722354</v>
       </c>
       <c r="L8">
-        <v>1.027916193506227</v>
+        <v>1.023568967620016</v>
       </c>
       <c r="M8">
-        <v>1.030773753845706</v>
+        <v>1.026065270272575</v>
       </c>
       <c r="N8">
-        <v>1.028325034580708</v>
+        <v>1.022936696719288</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9864882320520295</v>
+        <v>0.9876709412696568</v>
       </c>
       <c r="D9">
-        <v>1.008135020717032</v>
+        <v>1.009074460745756</v>
       </c>
       <c r="E9">
-        <v>1.000292503498325</v>
+        <v>1.00201317810682</v>
       </c>
       <c r="F9">
-        <v>1.001278536674888</v>
+        <v>1.002894287185443</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041582547573926</v>
+        <v>1.042058342930032</v>
       </c>
       <c r="J9">
-        <v>1.01252731704132</v>
+        <v>1.013666710581683</v>
       </c>
       <c r="K9">
-        <v>1.021097477441649</v>
+        <v>1.02202200703822</v>
       </c>
       <c r="L9">
-        <v>1.013380836819237</v>
+        <v>1.0150736771256</v>
       </c>
       <c r="M9">
-        <v>1.014350904516105</v>
+        <v>1.015940580486658</v>
       </c>
       <c r="N9">
-        <v>1.013965221970026</v>
+        <v>1.015106233579906</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9728118962888739</v>
+        <v>0.9790704001169507</v>
       </c>
       <c r="D10">
-        <v>0.9976642894980841</v>
+        <v>1.002621584313746</v>
       </c>
       <c r="E10">
-        <v>0.98829370297254</v>
+        <v>0.9946224944969094</v>
       </c>
       <c r="F10">
-        <v>0.9879132131759315</v>
+        <v>0.9943509831583149</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036971123522354</v>
+        <v>1.039477383698793</v>
       </c>
       <c r="J10">
-        <v>1.002147344448294</v>
+        <v>1.008139743806818</v>
       </c>
       <c r="K10">
-        <v>1.012075844368528</v>
+        <v>1.016943666023298</v>
       </c>
       <c r="L10">
-        <v>1.002877584616098</v>
+        <v>1.009089525031826</v>
       </c>
       <c r="M10">
-        <v>1.002504182214114</v>
+        <v>1.008822986951654</v>
       </c>
       <c r="N10">
-        <v>1.003570508625318</v>
+        <v>1.009571417878268</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9665919750586576</v>
+        <v>0.9752231736674285</v>
       </c>
       <c r="D11">
-        <v>0.9929089708358865</v>
+        <v>0.999736583470385</v>
       </c>
       <c r="E11">
-        <v>0.9828496207039009</v>
+        <v>0.9913267671946866</v>
       </c>
       <c r="F11">
-        <v>0.9818502908579517</v>
+        <v>0.9905415397001743</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03485503449504</v>
+        <v>1.038304187529817</v>
       </c>
       <c r="J11">
-        <v>0.9974237772098353</v>
+        <v>1.005664300459708</v>
       </c>
       <c r="K11">
-        <v>1.007965864110146</v>
+        <v>1.014663469151552</v>
       </c>
       <c r="L11">
-        <v>0.9981023813039179</v>
+        <v>1.006414122729115</v>
       </c>
       <c r="M11">
-        <v>0.9971227975171864</v>
+        <v>1.005644060610901</v>
       </c>
       <c r="N11">
-        <v>0.9988402333795798</v>
+        <v>1.007092459117668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9642321599166137</v>
+        <v>0.9737744446936512</v>
       </c>
       <c r="D12">
-        <v>0.9911060910321138</v>
+        <v>0.998650540275442</v>
       </c>
       <c r="E12">
-        <v>0.9807862842645179</v>
+        <v>0.9900873369920444</v>
       </c>
       <c r="F12">
-        <v>0.9795525249273376</v>
+        <v>0.9891089202278796</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034049513262894</v>
+        <v>1.037859686735019</v>
       </c>
       <c r="J12">
-        <v>0.9956313963418535</v>
+        <v>1.004731735675568</v>
       </c>
       <c r="K12">
-        <v>1.006405691239393</v>
+        <v>1.013803639550497</v>
       </c>
       <c r="L12">
-        <v>0.9962910844868064</v>
+        <v>1.005406944379652</v>
       </c>
       <c r="M12">
-        <v>0.9950822384561431</v>
+        <v>1.004447793568974</v>
       </c>
       <c r="N12">
-        <v>0.9970453071251761</v>
+        <v>1.006158569984568</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9647406693417342</v>
+        <v>0.9740861136981948</v>
       </c>
       <c r="D13">
-        <v>0.9914945262807173</v>
+        <v>0.9988841661346813</v>
       </c>
       <c r="E13">
-        <v>0.9812308070774873</v>
+        <v>0.9903539043621816</v>
       </c>
       <c r="F13">
-        <v>0.980047548894911</v>
+        <v>0.9894170376791815</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034223211211593</v>
+        <v>1.037955434642553</v>
       </c>
       <c r="J13">
-        <v>0.9960176410288901</v>
+        <v>1.004932377885144</v>
       </c>
       <c r="K13">
-        <v>1.006741923763675</v>
+        <v>1.01398866914511</v>
       </c>
       <c r="L13">
-        <v>0.9966813747213943</v>
+        <v>1.005623607512973</v>
       </c>
       <c r="M13">
-        <v>0.9955218992627238</v>
+        <v>1.004705112415328</v>
       </c>
       <c r="N13">
-        <v>0.9974321003239712</v>
+        <v>1.006359497129095</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9663979505608813</v>
+        <v>0.975103830395883</v>
       </c>
       <c r="D14">
-        <v>0.9927607103167213</v>
+        <v>0.9996471097762132</v>
       </c>
       <c r="E14">
-        <v>0.9826799284512284</v>
+        <v>0.9912246320796965</v>
       </c>
       <c r="F14">
-        <v>0.9816613168036168</v>
+        <v>0.9904234849590586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034788857874874</v>
+        <v>1.03826762514003</v>
       </c>
       <c r="J14">
-        <v>0.9972764119851857</v>
+        <v>1.005587485467569</v>
       </c>
       <c r="K14">
-        <v>1.007837602657967</v>
+        <v>1.014592661761929</v>
       </c>
       <c r="L14">
-        <v>0.997953447081091</v>
+        <v>1.006331147333694</v>
       </c>
       <c r="M14">
-        <v>0.9969549987227043</v>
+        <v>1.005545497931222</v>
       </c>
       <c r="N14">
-        <v>0.9986926588794081</v>
+        <v>1.007015535039429</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9674123502849117</v>
+        <v>0.9757282315394062</v>
       </c>
       <c r="D15">
-        <v>0.9935358998309731</v>
+        <v>1.000115248799028</v>
       </c>
       <c r="E15">
-        <v>0.9835672018210511</v>
+        <v>0.9917590671573855</v>
       </c>
       <c r="F15">
-        <v>0.9826494135728504</v>
+        <v>0.991041221501044</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035134734667142</v>
+        <v>1.038458808580027</v>
       </c>
       <c r="J15">
-        <v>0.9980468571645457</v>
+        <v>1.005989363748942</v>
       </c>
       <c r="K15">
-        <v>1.008508145941647</v>
+        <v>1.014963076503465</v>
       </c>
       <c r="L15">
-        <v>0.9987321227490835</v>
+        <v>1.006765284552384</v>
       </c>
       <c r="M15">
-        <v>0.9978323314666369</v>
+        <v>1.006061208627836</v>
       </c>
       <c r="N15">
-        <v>0.9994641981792939</v>
+        <v>1.007417984034058</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9732180287765214</v>
+        <v>0.9793230335636434</v>
       </c>
       <c r="D16">
-        <v>0.9979749499751833</v>
+        <v>1.002811073264574</v>
       </c>
       <c r="E16">
-        <v>0.988649458544546</v>
+        <v>0.99483913350424</v>
       </c>
       <c r="F16">
-        <v>0.9883094274732019</v>
+        <v>0.9946013930974947</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037108917266454</v>
+        <v>1.03955404232088</v>
       </c>
       <c r="J16">
-        <v>1.002455725550481</v>
+        <v>1.00830223815435</v>
       </c>
       <c r="K16">
-        <v>1.012344078266003</v>
+        <v>1.017093228621582</v>
       </c>
       <c r="L16">
-        <v>1.00318942952928</v>
+        <v>1.009265244605103</v>
       </c>
       <c r="M16">
-        <v>1.002855707272207</v>
+        <v>1.009031843397293</v>
       </c>
       <c r="N16">
-        <v>1.003879327664041</v>
+        <v>1.009734142986413</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9767768953070575</v>
+        <v>0.981544176408815</v>
       </c>
       <c r="D17">
-        <v>1.000697995674111</v>
+        <v>1.004477238849207</v>
       </c>
       <c r="E17">
-        <v>0.9917683535068761</v>
+        <v>0.996744993119431</v>
       </c>
       <c r="F17">
-        <v>0.9917831484216666</v>
+        <v>0.9968043758213442</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038314275100253</v>
+        <v>1.04022591191142</v>
       </c>
       <c r="J17">
-        <v>1.005157713087105</v>
+        <v>1.009730537293636</v>
       </c>
       <c r="K17">
-        <v>1.01469379755642</v>
+        <v>1.01840721863037</v>
       </c>
       <c r="L17">
-        <v>1.005922269306696</v>
+        <v>1.010810336119973</v>
       </c>
       <c r="M17">
-        <v>1.005936799194742</v>
+        <v>1.010868668870707</v>
       </c>
       <c r="N17">
-        <v>1.00658515233289</v>
+        <v>1.011164470474305</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9788243219677313</v>
+        <v>0.9828279367708825</v>
       </c>
       <c r="D18">
-        <v>1.002265182312327</v>
+        <v>1.005440373618712</v>
       </c>
       <c r="E18">
-        <v>0.9935638586318492</v>
+        <v>0.997847497806852</v>
       </c>
       <c r="F18">
-        <v>0.9937830368615522</v>
+        <v>0.998078788996518</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039005946318924</v>
+        <v>1.040612461507792</v>
       </c>
       <c r="J18">
-        <v>1.006711900855198</v>
+        <v>1.010555757717537</v>
       </c>
       <c r="K18">
-        <v>1.016044929977553</v>
+        <v>1.019165855288217</v>
       </c>
       <c r="L18">
-        <v>1.007494620835766</v>
+        <v>1.011703489970862</v>
       </c>
       <c r="M18">
-        <v>1.00770995307989</v>
+        <v>1.011930767654419</v>
       </c>
       <c r="N18">
-        <v>1.008141547225882</v>
+        <v>1.011990862805861</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9795177560726479</v>
+        <v>0.9832637000494036</v>
       </c>
       <c r="D19">
-        <v>1.002796062285374</v>
+        <v>1.005767322579637</v>
       </c>
       <c r="E19">
-        <v>0.9941721681048319</v>
+        <v>0.9982218974154193</v>
       </c>
       <c r="F19">
-        <v>0.994460611735837</v>
+        <v>0.998511572840399</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03923990037581</v>
+        <v>1.040743369724208</v>
       </c>
       <c r="J19">
-        <v>1.007238231551457</v>
+        <v>1.010835820509703</v>
       </c>
       <c r="K19">
-        <v>1.01650242063967</v>
+        <v>1.01942322830399</v>
       </c>
       <c r="L19">
-        <v>1.008027173390668</v>
+        <v>1.01200668532144</v>
       </c>
       <c r="M19">
-        <v>1.008310591269173</v>
+        <v>1.012291366353606</v>
       </c>
       <c r="N19">
-        <v>1.0086686253721</v>
+        <v>1.012271323319315</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9763980318985696</v>
+        <v>0.9813070971184548</v>
       </c>
       <c r="D20">
-        <v>1.000408045373774</v>
+        <v>1.004299381511361</v>
       </c>
       <c r="E20">
-        <v>0.9914362022357034</v>
+        <v>0.9965414652244156</v>
       </c>
       <c r="F20">
-        <v>0.991413197916851</v>
+        <v>0.9965691152888988</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038186140858825</v>
+        <v>1.040154381617041</v>
       </c>
       <c r="J20">
-        <v>1.004870097262782</v>
+        <v>1.009578114636412</v>
       </c>
       <c r="K20">
-        <v>1.014443723588391</v>
+        <v>1.018267050426928</v>
       </c>
       <c r="L20">
-        <v>1.005631325924234</v>
+        <v>1.010645402637445</v>
       </c>
       <c r="M20">
-        <v>1.005608735252675</v>
+        <v>1.010672562138108</v>
       </c>
       <c r="N20">
-        <v>1.006297128061107</v>
+        <v>1.011011831359423</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9659113290260323</v>
+        <v>0.9748046920829415</v>
       </c>
       <c r="D21">
-        <v>0.9923888881141514</v>
+        <v>0.9994228466376587</v>
       </c>
       <c r="E21">
-        <v>0.9822543680895485</v>
+        <v>0.9909686530581151</v>
       </c>
       <c r="F21">
-        <v>0.9811874024518594</v>
+        <v>0.9901276068768595</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034622841529894</v>
+        <v>1.038175936728411</v>
       </c>
       <c r="J21">
-        <v>0.9969068099324867</v>
+        <v>1.005394939633286</v>
       </c>
       <c r="K21">
-        <v>1.007515904423227</v>
+        <v>1.014415161622555</v>
       </c>
       <c r="L21">
-        <v>0.9975799207888846</v>
+        <v>1.006123171233431</v>
       </c>
       <c r="M21">
-        <v>0.9965341708670249</v>
+        <v>1.005298460096602</v>
       </c>
       <c r="N21">
-        <v>0.9983225319494001</v>
+        <v>1.006822715767976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9590289068811544</v>
+        <v>0.970601736929201</v>
       </c>
       <c r="D22">
-        <v>0.9871335142103909</v>
+        <v>0.9962728838234118</v>
       </c>
       <c r="E22">
-        <v>0.9762409124991634</v>
+        <v>0.9873760696239584</v>
       </c>
       <c r="F22">
-        <v>0.9744908570711426</v>
+        <v>0.9859750165521128</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03226860431933</v>
+        <v>1.036881334080368</v>
       </c>
       <c r="J22">
-        <v>0.9916789696202939</v>
+        <v>1.002688762277847</v>
       </c>
       <c r="K22">
-        <v>1.002964241586527</v>
+        <v>1.011918538971207</v>
       </c>
       <c r="L22">
-        <v>0.9922982064508814</v>
+        <v>1.003201826876131</v>
       </c>
       <c r="M22">
-        <v>0.9905851776641851</v>
+        <v>1.001829526836969</v>
       </c>
       <c r="N22">
-        <v>0.9930872675043224</v>
+        <v>1.00411269533029</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9627065602092918</v>
+        <v>0.9728410963679511</v>
       </c>
       <c r="D23">
-        <v>0.9899409390024728</v>
+        <v>0.9979509660929483</v>
       </c>
       <c r="E23">
-        <v>0.9794529813698634</v>
+        <v>0.9892892976649122</v>
       </c>
       <c r="F23">
-        <v>0.9780677601978587</v>
+        <v>0.9881864876670522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033528013572794</v>
+        <v>1.037572561471347</v>
       </c>
       <c r="J23">
-        <v>0.9944725797182504</v>
+        <v>1.004130823356735</v>
       </c>
       <c r="K23">
-        <v>1.005396835999344</v>
+        <v>1.013249368831859</v>
       </c>
       <c r="L23">
-        <v>0.9951202303220734</v>
+        <v>1.004758154809938</v>
       </c>
       <c r="M23">
-        <v>0.9937633710090565</v>
+        <v>1.003677329225764</v>
       </c>
       <c r="N23">
-        <v>0.9958848448490493</v>
+        <v>1.005556804301317</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9765693113824077</v>
+        <v>0.9814142594056878</v>
       </c>
       <c r="D24">
-        <v>1.000539126458168</v>
+        <v>1.004379774450723</v>
       </c>
       <c r="E24">
-        <v>0.9915863600353089</v>
+        <v>0.9966334589326689</v>
       </c>
       <c r="F24">
-        <v>0.9915804435020206</v>
+        <v>0.9966754519186265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038244074299266</v>
+        <v>1.040186719554979</v>
       </c>
       <c r="J24">
-        <v>1.005000125698611</v>
+        <v>1.009647012179944</v>
       </c>
       <c r="K24">
-        <v>1.014556781041967</v>
+        <v>1.018330410434294</v>
       </c>
       <c r="L24">
-        <v>1.005762857420819</v>
+        <v>1.010719953867397</v>
       </c>
       <c r="M24">
-        <v>1.005757047092678</v>
+        <v>1.010761202973051</v>
       </c>
       <c r="N24">
-        <v>1.006427341152229</v>
+        <v>1.01108082674537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9915535680957964</v>
+        <v>0.9909037004488084</v>
       </c>
       <c r="D25">
-        <v>1.012017276783697</v>
+        <v>1.011500563458297</v>
       </c>
       <c r="E25">
-        <v>1.004746367517789</v>
+        <v>1.004799584150085</v>
       </c>
       <c r="F25">
-        <v>1.006240995559501</v>
+        <v>1.006115702283842</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043273739893751</v>
+        <v>1.043011863349032</v>
       </c>
       <c r="J25">
-        <v>1.016368570682194</v>
+        <v>1.015741117668443</v>
       </c>
       <c r="K25">
-        <v>1.024431860946361</v>
+        <v>1.023922933246881</v>
       </c>
       <c r="L25">
-        <v>1.017271446377278</v>
+        <v>1.017323846874331</v>
       </c>
       <c r="M25">
-        <v>1.018743194538254</v>
+        <v>1.018619815932399</v>
       </c>
       <c r="N25">
-        <v>1.017811930631666</v>
+        <v>1.017183586562667</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9981412083094201</v>
+        <v>0.9980712152299525</v>
       </c>
       <c r="D2">
-        <v>1.016931690533108</v>
+        <v>1.019342604815566</v>
       </c>
       <c r="E2">
-        <v>1.01105498175217</v>
+        <v>1.01104713984995</v>
       </c>
       <c r="F2">
-        <v>1.013349209758397</v>
+        <v>1.013323435645631</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045109080007268</v>
+        <v>1.046332845162789</v>
       </c>
       <c r="J2">
-        <v>1.020377658011919</v>
+        <v>1.020309769361979</v>
       </c>
       <c r="K2">
-        <v>1.028160073963808</v>
+        <v>1.030538886249506</v>
       </c>
       <c r="L2">
-        <v>1.022362421960804</v>
+        <v>1.022354686324659</v>
       </c>
       <c r="M2">
-        <v>1.024625649561911</v>
+        <v>1.024600222737829</v>
       </c>
       <c r="N2">
-        <v>1.021826711325248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010764293990895</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032663823244803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00322141757572</v>
+        <v>1.001996659109853</v>
       </c>
       <c r="D3">
-        <v>1.020742352123751</v>
+        <v>1.021935187025895</v>
       </c>
       <c r="E3">
-        <v>1.015460460657286</v>
+        <v>1.014423129263654</v>
       </c>
       <c r="F3">
-        <v>1.018445282161127</v>
+        <v>1.017340885404898</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04654659290648</v>
+        <v>1.047152725654005</v>
       </c>
       <c r="J3">
-        <v>1.023624647079747</v>
+        <v>1.022433040782469</v>
       </c>
       <c r="K3">
-        <v>1.031116535231945</v>
+        <v>1.032294889900861</v>
       </c>
       <c r="L3">
-        <v>1.025899271111104</v>
+        <v>1.024874730539467</v>
       </c>
       <c r="M3">
-        <v>1.028847468985306</v>
+        <v>1.027756591977997</v>
       </c>
       <c r="N3">
-        <v>1.025078311489988</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011471367210375</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.033902805152098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006432897491135</v>
+        <v>1.004489284478364</v>
       </c>
       <c r="D4">
-        <v>1.023150019280432</v>
+        <v>1.023582025465519</v>
       </c>
       <c r="E4">
-        <v>1.018251862180174</v>
+        <v>1.016572915617871</v>
       </c>
       <c r="F4">
-        <v>1.021675224869754</v>
+        <v>1.019899471876148</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047438890396675</v>
+        <v>1.047658567934758</v>
       </c>
       <c r="J4">
-        <v>1.025673468354215</v>
+        <v>1.023778846882201</v>
       </c>
       <c r="K4">
-        <v>1.032976847482572</v>
+        <v>1.033403929432553</v>
       </c>
       <c r="L4">
-        <v>1.028134883128212</v>
+        <v>1.026475351800486</v>
       </c>
       <c r="M4">
-        <v>1.031518902275966</v>
+        <v>1.029763516700958</v>
       </c>
       <c r="N4">
-        <v>1.02713004232567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01191958456327</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034687905942103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007765581800192</v>
+        <v>1.005528309702367</v>
       </c>
       <c r="D5">
-        <v>1.024148764131331</v>
+        <v>1.024270302015988</v>
       </c>
       <c r="E5">
-        <v>1.019411729581871</v>
+        <v>1.017470608589668</v>
       </c>
       <c r="F5">
-        <v>1.023017567402908</v>
+        <v>1.020967653438484</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047805164183452</v>
+        <v>1.047866985445012</v>
       </c>
       <c r="J5">
-        <v>1.02652272880126</v>
+        <v>1.024340138917953</v>
       </c>
       <c r="K5">
-        <v>1.033746696576986</v>
+        <v>1.033866886402826</v>
       </c>
       <c r="L5">
-        <v>1.029062511987786</v>
+        <v>1.027143222716578</v>
       </c>
       <c r="M5">
-        <v>1.032628065615787</v>
+        <v>1.030601010203606</v>
       </c>
       <c r="N5">
-        <v>1.027980508819961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012106802998664</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035022479256561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007988343730008</v>
+        <v>1.005704704846441</v>
       </c>
       <c r="D6">
-        <v>1.024315682851248</v>
+        <v>1.024389246829601</v>
       </c>
       <c r="E6">
-        <v>1.01960569194422</v>
+        <v>1.017623273848307</v>
       </c>
       <c r="F6">
-        <v>1.023242060366354</v>
+        <v>1.021148939091496</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047866150402544</v>
+        <v>1.047903571229933</v>
       </c>
       <c r="J6">
-        <v>1.026664628035024</v>
+        <v>1.024436513476946</v>
       </c>
       <c r="K6">
-        <v>1.033875251715162</v>
+        <v>1.033948003519983</v>
       </c>
       <c r="L6">
-        <v>1.029217561051995</v>
+        <v>1.02725733417872</v>
       </c>
       <c r="M6">
-        <v>1.032813498757809</v>
+        <v>1.030743606443737</v>
       </c>
       <c r="N6">
-        <v>1.028122609566913</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012139279407605</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035088639635517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006450772424951</v>
+        <v>1.004510068403041</v>
       </c>
       <c r="D7">
-        <v>1.023163416761772</v>
+        <v>1.023601352350769</v>
       </c>
       <c r="E7">
-        <v>1.018267413274373</v>
+        <v>1.01659135742418</v>
       </c>
       <c r="F7">
-        <v>1.02169322148937</v>
+        <v>1.019920400843174</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047443819052214</v>
+        <v>1.047666512649164</v>
       </c>
       <c r="J7">
-        <v>1.025684863062772</v>
+        <v>1.02379305683457</v>
       </c>
       <c r="K7">
-        <v>1.032987181778697</v>
+        <v>1.033420127410332</v>
       </c>
       <c r="L7">
-        <v>1.028147325588995</v>
+        <v>1.026490644260948</v>
       </c>
       <c r="M7">
-        <v>1.031533776917998</v>
+        <v>1.029781282303498</v>
       </c>
       <c r="N7">
-        <v>1.027141453216019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011925221714446</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03471960880143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9998742177733069</v>
+        <v>0.9994161620966071</v>
       </c>
       <c r="D8">
-        <v>1.018231838461491</v>
+        <v>1.020237406457735</v>
       </c>
       <c r="E8">
-        <v>1.012556436898671</v>
+        <v>1.012203204027948</v>
       </c>
       <c r="F8">
-        <v>1.015085841277665</v>
+        <v>1.014697863284413</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045602870803134</v>
+        <v>1.046621256568156</v>
       </c>
       <c r="J8">
-        <v>1.021486069334743</v>
+        <v>1.021041313815589</v>
       </c>
       <c r="K8">
-        <v>1.029170383722354</v>
+        <v>1.031150053016867</v>
       </c>
       <c r="L8">
-        <v>1.023568967620016</v>
+        <v>1.023220373927688</v>
       </c>
       <c r="M8">
-        <v>1.026065270272575</v>
+        <v>1.025682356234163</v>
       </c>
       <c r="N8">
-        <v>1.022936696719288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.011009063488852</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033119058609395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9876709412696568</v>
+        <v>0.9900496884959094</v>
       </c>
       <c r="D9">
-        <v>1.009074460745756</v>
+        <v>1.01405036360136</v>
       </c>
       <c r="E9">
-        <v>1.00201317810682</v>
+        <v>1.004183082100778</v>
       </c>
       <c r="F9">
-        <v>1.002894287185443</v>
+        <v>1.005156023485071</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042058342930032</v>
+        <v>1.044578765456572</v>
       </c>
       <c r="J9">
-        <v>1.013666710581683</v>
+        <v>1.015958778027666</v>
       </c>
       <c r="K9">
-        <v>1.02202200703822</v>
+        <v>1.026919523502143</v>
       </c>
       <c r="L9">
-        <v>1.0150736771256</v>
+        <v>1.017208654343295</v>
       </c>
       <c r="M9">
-        <v>1.015940580486658</v>
+        <v>1.018165998050496</v>
       </c>
       <c r="N9">
-        <v>1.015106233579906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009315826975158</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030124540015054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9790704001169507</v>
+        <v>0.9835271734378189</v>
       </c>
       <c r="D10">
-        <v>1.002621584313746</v>
+        <v>1.009751949789268</v>
       </c>
       <c r="E10">
-        <v>0.9946224944969094</v>
+        <v>0.9986339510609147</v>
       </c>
       <c r="F10">
-        <v>0.9943509831583149</v>
+        <v>0.9985534918632997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039477383698793</v>
+        <v>1.043083249493929</v>
       </c>
       <c r="J10">
-        <v>1.008139743806818</v>
+        <v>1.012409954397241</v>
       </c>
       <c r="K10">
-        <v>1.016943666023298</v>
+        <v>1.023947334150874</v>
       </c>
       <c r="L10">
-        <v>1.009089525031826</v>
+        <v>1.013027913824295</v>
       </c>
       <c r="M10">
-        <v>1.008822986951654</v>
+        <v>1.012948912668846</v>
       </c>
       <c r="N10">
-        <v>1.009571417878268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008134351845413</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028039945765584</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9752231736674285</v>
+        <v>0.9806379060944346</v>
       </c>
       <c r="D11">
-        <v>0.999736583470385</v>
+        <v>1.00785649678845</v>
       </c>
       <c r="E11">
-        <v>0.9913267671946866</v>
+        <v>0.9961856085758511</v>
       </c>
       <c r="F11">
-        <v>0.9905415397001743</v>
+        <v>0.9956388669421148</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038304187529817</v>
+        <v>1.042407612008416</v>
       </c>
       <c r="J11">
-        <v>1.005664300459708</v>
+        <v>1.010838959266628</v>
       </c>
       <c r="K11">
-        <v>1.014663469151552</v>
+        <v>1.022631756559564</v>
       </c>
       <c r="L11">
-        <v>1.006414122729115</v>
+        <v>1.01117981902606</v>
       </c>
       <c r="M11">
-        <v>1.005644060610901</v>
+        <v>1.010643499165446</v>
       </c>
       <c r="N11">
-        <v>1.007092459117668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00761281601532</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027142937760835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9737744446936512</v>
+        <v>0.9795490871367668</v>
       </c>
       <c r="D12">
-        <v>0.998650540275442</v>
+        <v>1.007139373502446</v>
       </c>
       <c r="E12">
-        <v>0.9900873369920444</v>
+        <v>0.9952638974994108</v>
       </c>
       <c r="F12">
-        <v>0.9891089202278796</v>
+        <v>0.9945421892228025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037859686735019</v>
+        <v>1.042148436906806</v>
       </c>
       <c r="J12">
-        <v>1.004731735675568</v>
+        <v>1.010244913088453</v>
       </c>
       <c r="K12">
-        <v>1.013803639550497</v>
+        <v>1.022131060774801</v>
       </c>
       <c r="L12">
-        <v>1.005406944379652</v>
+        <v>1.010482399753014</v>
       </c>
       <c r="M12">
-        <v>1.004447793568974</v>
+        <v>1.009774704621881</v>
       </c>
       <c r="N12">
-        <v>1.006158569984568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007414896674117</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02678892244931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9740861136981948</v>
+        <v>0.9797823529929711</v>
       </c>
       <c r="D13">
-        <v>0.9988841661346813</v>
+        <v>1.007292348258179</v>
       </c>
       <c r="E13">
-        <v>0.9903539043621816</v>
+        <v>0.9954612100290225</v>
       </c>
       <c r="F13">
-        <v>0.9894170376791815</v>
+        <v>0.994777087576402</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037955434642553</v>
+        <v>1.042203673506447</v>
       </c>
       <c r="J13">
-        <v>1.004932377885144</v>
+        <v>1.010371857086722</v>
       </c>
       <c r="K13">
-        <v>1.01398866914511</v>
+        <v>1.022237590104836</v>
       </c>
       <c r="L13">
-        <v>1.005623607512973</v>
+        <v>1.010631557636861</v>
       </c>
       <c r="M13">
-        <v>1.004705112415328</v>
+        <v>1.009960666289444</v>
       </c>
       <c r="N13">
-        <v>1.006359497129095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007457044434978</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026861723427378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.975103830395883</v>
+        <v>0.9805477909309104</v>
       </c>
       <c r="D14">
-        <v>0.9996471097762132</v>
+        <v>1.007796861126886</v>
       </c>
       <c r="E14">
-        <v>0.9912246320796965</v>
+        <v>0.9961092574806156</v>
       </c>
       <c r="F14">
-        <v>0.9904234849590586</v>
+        <v>0.9955480781045004</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03826762514003</v>
+        <v>1.042386040251722</v>
       </c>
       <c r="J14">
-        <v>1.005587485467569</v>
+        <v>1.010789655270538</v>
       </c>
       <c r="K14">
-        <v>1.014592661761929</v>
+        <v>1.022590000882573</v>
       </c>
       <c r="L14">
-        <v>1.006331147333694</v>
+        <v>1.011121988141419</v>
       </c>
       <c r="M14">
-        <v>1.005545497931222</v>
+        <v>1.01057152215764</v>
       </c>
       <c r="N14">
-        <v>1.007015535039429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.007596327024262</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027112334971556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9757282315394062</v>
+        <v>0.9810194996050002</v>
       </c>
       <c r="D15">
-        <v>1.000115248799028</v>
+        <v>1.008109114731817</v>
       </c>
       <c r="E15">
-        <v>0.9917590671573855</v>
+        <v>0.9965089839511818</v>
       </c>
       <c r="F15">
-        <v>0.991041221501044</v>
+        <v>0.9960233748617403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038458808580027</v>
+        <v>1.042498901054458</v>
       </c>
       <c r="J15">
-        <v>1.005989363748942</v>
+        <v>1.01104776310877</v>
       </c>
       <c r="K15">
-        <v>1.014963076503465</v>
+        <v>1.02280862129715</v>
       </c>
       <c r="L15">
-        <v>1.006765284552384</v>
+        <v>1.011424741774798</v>
       </c>
       <c r="M15">
-        <v>1.006061208627836</v>
+        <v>1.010948329084087</v>
       </c>
       <c r="N15">
-        <v>1.007417984034058</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007682662572699</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027272845491353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9793230335636434</v>
+        <v>0.9837315908052802</v>
       </c>
       <c r="D16">
-        <v>1.002811073264574</v>
+        <v>1.009897326652744</v>
       </c>
       <c r="E16">
-        <v>0.99483913350424</v>
+        <v>0.9988088609283383</v>
       </c>
       <c r="F16">
-        <v>0.9946013930974947</v>
+        <v>0.9987595054925615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03955404232088</v>
+        <v>1.043137768035987</v>
       </c>
       <c r="J16">
-        <v>1.00830223815435</v>
+        <v>1.012526966880114</v>
       </c>
       <c r="K16">
-        <v>1.017093228621582</v>
+        <v>1.024053992261535</v>
       </c>
       <c r="L16">
-        <v>1.009265244605103</v>
+        <v>1.013162914021627</v>
       </c>
       <c r="M16">
-        <v>1.009031843397293</v>
+        <v>1.013114449907716</v>
       </c>
       <c r="N16">
-        <v>1.009734142986413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008175653326912</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028156583373326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.981544176408815</v>
+        <v>0.985412990149621</v>
       </c>
       <c r="D17">
-        <v>1.004477238849207</v>
+        <v>1.011006736376961</v>
       </c>
       <c r="E17">
-        <v>0.996744993119431</v>
+        <v>1.000237090605453</v>
       </c>
       <c r="F17">
-        <v>0.9968043758213442</v>
+        <v>1.000458544418408</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04022591191142</v>
+        <v>1.043529426338398</v>
       </c>
       <c r="J17">
-        <v>1.009730537293636</v>
+        <v>1.013443501373288</v>
       </c>
       <c r="K17">
-        <v>1.01840721863037</v>
+        <v>1.024824491214386</v>
       </c>
       <c r="L17">
-        <v>1.010810336119973</v>
+        <v>1.014240964041327</v>
       </c>
       <c r="M17">
-        <v>1.010868668870707</v>
+        <v>1.014458538464173</v>
       </c>
       <c r="N17">
-        <v>1.011164470474305</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008481138412233</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028703977035544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9828279367708825</v>
+        <v>0.986382329321532</v>
       </c>
       <c r="D18">
-        <v>1.005440373618712</v>
+        <v>1.011643087977985</v>
       </c>
       <c r="E18">
-        <v>0.997847497806852</v>
+        <v>1.001060872086754</v>
       </c>
       <c r="F18">
-        <v>0.998078788996518</v>
+        <v>1.001439172444615</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040612461507792</v>
+        <v>1.043751397004393</v>
       </c>
       <c r="J18">
-        <v>1.010555757717537</v>
+        <v>1.013969854214842</v>
       </c>
       <c r="K18">
-        <v>1.019165855288217</v>
+        <v>1.025263828081485</v>
       </c>
       <c r="L18">
-        <v>1.011703489970862</v>
+        <v>1.014861318588536</v>
       </c>
       <c r="M18">
-        <v>1.011930767654419</v>
+        <v>1.015233110052699</v>
       </c>
       <c r="N18">
-        <v>1.011990862805861</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008655840717337</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029002853126277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9832637000494036</v>
+        <v>0.9867150979073341</v>
       </c>
       <c r="D19">
-        <v>1.005767322579637</v>
+        <v>1.011864287198572</v>
       </c>
       <c r="E19">
-        <v>0.9982218974154193</v>
+        <v>1.001344158972951</v>
       </c>
       <c r="F19">
-        <v>0.998511572840399</v>
+        <v>1.001775867302599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040743369724208</v>
+        <v>1.04382904258003</v>
       </c>
       <c r="J19">
-        <v>1.010835820509703</v>
+        <v>1.014151937236079</v>
       </c>
       <c r="K19">
-        <v>1.01942322830399</v>
+        <v>1.025417860291414</v>
       </c>
       <c r="L19">
-        <v>1.01200668532144</v>
+        <v>1.015075311659204</v>
       </c>
       <c r="M19">
-        <v>1.012291366353606</v>
+        <v>1.015499637953043</v>
       </c>
       <c r="N19">
-        <v>1.012271323319315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008716853649141</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029118217421974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9813070971184548</v>
+        <v>0.9852329753194198</v>
       </c>
       <c r="D20">
-        <v>1.004299381511361</v>
+        <v>1.010887663765287</v>
       </c>
       <c r="E20">
-        <v>0.9965414652244156</v>
+        <v>1.000084057742736</v>
       </c>
       <c r="F20">
-        <v>0.9965691152888988</v>
+        <v>1.000276550377295</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040154381617041</v>
+        <v>1.043487490363374</v>
       </c>
       <c r="J20">
-        <v>1.009578114636412</v>
+        <v>1.01334525360296</v>
       </c>
       <c r="K20">
-        <v>1.018267050426928</v>
+        <v>1.024741730784059</v>
       </c>
       <c r="L20">
-        <v>1.010645402637445</v>
+        <v>1.014125429257521</v>
       </c>
       <c r="M20">
-        <v>1.010672562138108</v>
+        <v>1.014314538722602</v>
       </c>
       <c r="N20">
-        <v>1.011011831359423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008448333296934</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028644112548073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9748046920829415</v>
+        <v>0.9803272982338367</v>
       </c>
       <c r="D21">
-        <v>0.9994228466376587</v>
+        <v>1.007655097110598</v>
       </c>
       <c r="E21">
-        <v>0.9909686530581151</v>
+        <v>0.9959230407365662</v>
       </c>
       <c r="F21">
-        <v>0.9901276068768595</v>
+        <v>0.9953258262679227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038175936728411</v>
+        <v>1.042335820060704</v>
       </c>
       <c r="J21">
-        <v>1.005394939633286</v>
+        <v>1.010671192168105</v>
       </c>
       <c r="K21">
-        <v>1.014415161622555</v>
+        <v>1.022492878306634</v>
       </c>
       <c r="L21">
-        <v>1.006123171233431</v>
+        <v>1.010982066219025</v>
       </c>
       <c r="M21">
-        <v>1.005298460096602</v>
+        <v>1.010396296716746</v>
       </c>
       <c r="N21">
-        <v>1.006822715767976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007557649498884</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027057324501019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.970601736929201</v>
+        <v>0.9771705851302844</v>
       </c>
       <c r="D22">
-        <v>0.9962728838234118</v>
+        <v>1.005573383358376</v>
       </c>
       <c r="E22">
-        <v>0.9873760696239584</v>
+        <v>0.9932529808271119</v>
       </c>
       <c r="F22">
-        <v>0.9859750165521128</v>
+        <v>0.9921494581125827</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036881334080368</v>
+        <v>1.041577530186941</v>
       </c>
       <c r="J22">
-        <v>1.002688762277847</v>
+        <v>1.008946546827196</v>
       </c>
       <c r="K22">
-        <v>1.011918538971207</v>
+        <v>1.021035233122208</v>
       </c>
       <c r="L22">
-        <v>1.003201826876131</v>
+        <v>1.008959292962793</v>
       </c>
       <c r="M22">
-        <v>1.001829526836969</v>
+        <v>1.007878056648454</v>
       </c>
       <c r="N22">
-        <v>1.00411269533029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006982248428612</v>
+      </c>
+      <c r="Q22">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R22">
+        <v>1.026013038765621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9728410963679511</v>
+        <v>0.9788450437959151</v>
       </c>
       <c r="D23">
-        <v>0.9979509660929483</v>
+        <v>1.006673051820512</v>
       </c>
       <c r="E23">
-        <v>0.9892892976649122</v>
+        <v>0.9946679149823212</v>
       </c>
       <c r="F23">
-        <v>0.9881864876670522</v>
+        <v>0.9938335988655999</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037572561471347</v>
+        <v>1.041978426397969</v>
       </c>
       <c r="J23">
-        <v>1.004130823356735</v>
+        <v>1.009859267857841</v>
       </c>
       <c r="K23">
-        <v>1.013249368831859</v>
+        <v>1.021803687264374</v>
       </c>
       <c r="L23">
-        <v>1.004758154809938</v>
+        <v>1.010030466882544</v>
       </c>
       <c r="M23">
-        <v>1.003677329225764</v>
+        <v>1.009212541551709</v>
       </c>
       <c r="N23">
-        <v>1.005556804301317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007285776304303</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.026546639776245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9814142594056878</v>
+        <v>0.9853050606526149</v>
       </c>
       <c r="D24">
-        <v>1.004379774450723</v>
+        <v>1.010928058611666</v>
       </c>
       <c r="E24">
-        <v>0.9966334589326689</v>
+        <v>1.000144394693904</v>
       </c>
       <c r="F24">
-        <v>0.9966754519186265</v>
+        <v>1.000349725245747</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040186719554979</v>
+        <v>1.043499657773586</v>
       </c>
       <c r="J24">
-        <v>1.009647012179944</v>
+        <v>1.013380755127322</v>
       </c>
       <c r="K24">
-        <v>1.018330410434294</v>
+        <v>1.024765945159132</v>
       </c>
       <c r="L24">
-        <v>1.010719953867397</v>
+        <v>1.014168975074033</v>
       </c>
       <c r="M24">
-        <v>1.010761202973051</v>
+        <v>1.014370702099131</v>
       </c>
       <c r="N24">
-        <v>1.01108082674537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008458627658897</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028633560166303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9909037004488084</v>
+        <v>0.9925287363926533</v>
       </c>
       <c r="D25">
-        <v>1.011500563458297</v>
+        <v>1.015694740278737</v>
       </c>
       <c r="E25">
-        <v>1.004799584150085</v>
+        <v>1.006300698719264</v>
       </c>
       <c r="F25">
-        <v>1.006115702283842</v>
+        <v>1.007673840132175</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043011863349032</v>
+        <v>1.045137668349768</v>
       </c>
       <c r="J25">
-        <v>1.015741117668443</v>
+        <v>1.017310181224907</v>
       </c>
       <c r="K25">
-        <v>1.023922933246881</v>
+        <v>1.028054204957758</v>
       </c>
       <c r="L25">
-        <v>1.017323846874331</v>
+        <v>1.01880198555803</v>
       </c>
       <c r="M25">
-        <v>1.018619815932399</v>
+        <v>1.020154186255033</v>
       </c>
       <c r="N25">
-        <v>1.017183586562667</v>
+        <v>1.009767539233445</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.03095567964048</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_45/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_45/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980712152299525</v>
+        <v>0.998349681869207</v>
       </c>
       <c r="D2">
-        <v>1.019342604815566</v>
+        <v>1.019312370206978</v>
       </c>
       <c r="E2">
-        <v>1.01104713984995</v>
+        <v>1.011294135020289</v>
       </c>
       <c r="F2">
-        <v>1.013323435645631</v>
+        <v>1.013582797014592</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046332845162789</v>
+        <v>1.046317497659647</v>
       </c>
       <c r="J2">
-        <v>1.020309769361979</v>
+        <v>1.020579865961561</v>
       </c>
       <c r="K2">
-        <v>1.030538886249506</v>
+        <v>1.030509053043105</v>
       </c>
       <c r="L2">
-        <v>1.022354686324659</v>
+        <v>1.022598335446949</v>
       </c>
       <c r="M2">
-        <v>1.024600222737829</v>
+        <v>1.024856090401485</v>
       </c>
       <c r="N2">
-        <v>1.010764293990895</v>
+        <v>1.012715599521011</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032663823244803</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032651570866011</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020280637770373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001996659109853</v>
+        <v>1.002123486027426</v>
       </c>
       <c r="D3">
-        <v>1.021935187025895</v>
+        <v>1.021708847906174</v>
       </c>
       <c r="E3">
-        <v>1.014423129263654</v>
+        <v>1.014535455721352</v>
       </c>
       <c r="F3">
-        <v>1.017340885404898</v>
+        <v>1.017458825542874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047152725654005</v>
+        <v>1.047037710952514</v>
       </c>
       <c r="J3">
-        <v>1.022433040782469</v>
+        <v>1.022556429588319</v>
       </c>
       <c r="K3">
-        <v>1.032294889900861</v>
+        <v>1.032071295160937</v>
       </c>
       <c r="L3">
-        <v>1.024874730539467</v>
+        <v>1.024985670383238</v>
       </c>
       <c r="M3">
-        <v>1.027756591977997</v>
+        <v>1.027873086581456</v>
       </c>
       <c r="N3">
-        <v>1.011471367210375</v>
+        <v>1.013239520859139</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.033902805152098</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033753264927225</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020592281064118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004489284478364</v>
+        <v>1.00452096950615</v>
       </c>
       <c r="D4">
-        <v>1.023582025465519</v>
+        <v>1.023232014059845</v>
       </c>
       <c r="E4">
-        <v>1.016572915617871</v>
+        <v>1.016600656891618</v>
       </c>
       <c r="F4">
-        <v>1.019899471876148</v>
+        <v>1.019928696704765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047658567934758</v>
+        <v>1.047480584989775</v>
       </c>
       <c r="J4">
-        <v>1.023778846882201</v>
+        <v>1.023809731190737</v>
       </c>
       <c r="K4">
-        <v>1.033403929432553</v>
+        <v>1.033057907247726</v>
       </c>
       <c r="L4">
-        <v>1.026475351800486</v>
+        <v>1.026502771631946</v>
       </c>
       <c r="M4">
-        <v>1.029763516700958</v>
+        <v>1.029792405619808</v>
       </c>
       <c r="N4">
-        <v>1.01191958456327</v>
+        <v>1.013571792912627</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034687905942103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034451877908587</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020786424268774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005528309702367</v>
+        <v>1.005520644288785</v>
       </c>
       <c r="D5">
-        <v>1.024270302015988</v>
+        <v>1.023869039000873</v>
       </c>
       <c r="E5">
-        <v>1.017470608589668</v>
+        <v>1.017463345025351</v>
       </c>
       <c r="F5">
-        <v>1.020967653438484</v>
+        <v>1.020960189367827</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047866985445012</v>
+        <v>1.047662880441808</v>
       </c>
       <c r="J5">
-        <v>1.024340138917953</v>
+        <v>1.024332661421328</v>
       </c>
       <c r="K5">
-        <v>1.033866886402826</v>
+        <v>1.033470075562445</v>
       </c>
       <c r="L5">
-        <v>1.027143222716578</v>
+        <v>1.027136041038047</v>
       </c>
       <c r="M5">
-        <v>1.030601010203606</v>
+        <v>1.030593629571096</v>
       </c>
       <c r="N5">
-        <v>1.012106802998664</v>
+        <v>1.013710657403083</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035022479256561</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034751248723358</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020867155246011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005704704846441</v>
+        <v>1.005690433148851</v>
       </c>
       <c r="D6">
-        <v>1.024389246829601</v>
+        <v>1.023979419386856</v>
       </c>
       <c r="E6">
-        <v>1.017623273848307</v>
+        <v>1.017610130528412</v>
       </c>
       <c r="F6">
-        <v>1.021148939091496</v>
+        <v>1.021135314513551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047903571229933</v>
+        <v>1.047695099479001</v>
       </c>
       <c r="J6">
-        <v>1.024436513476946</v>
+        <v>1.024422589847519</v>
       </c>
       <c r="K6">
-        <v>1.033948003519983</v>
+        <v>1.033542702550264</v>
       </c>
       <c r="L6">
-        <v>1.02725733417872</v>
+        <v>1.027244338340639</v>
       </c>
       <c r="M6">
-        <v>1.030743606443737</v>
+        <v>1.030730133451857</v>
       </c>
       <c r="N6">
-        <v>1.012139279407605</v>
+        <v>1.013734796940458</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035088639635517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034812274025794</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020881678160569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004510068403041</v>
+        <v>1.004548763813574</v>
       </c>
       <c r="D7">
-        <v>1.023601352350769</v>
+        <v>1.023255731732552</v>
       </c>
       <c r="E7">
-        <v>1.01659135742418</v>
+        <v>1.016625504732276</v>
       </c>
       <c r="F7">
-        <v>1.019920400843174</v>
+        <v>1.019956283368658</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047666512649164</v>
+        <v>1.047490761691618</v>
       </c>
       <c r="J7">
-        <v>1.02379305683457</v>
+        <v>1.023830774786367</v>
       </c>
       <c r="K7">
-        <v>1.033420127410332</v>
+        <v>1.033078444449313</v>
       </c>
       <c r="L7">
-        <v>1.026490644260948</v>
+        <v>1.026524396052304</v>
       </c>
       <c r="M7">
-        <v>1.029781282303498</v>
+        <v>1.029816752557847</v>
       </c>
       <c r="N7">
-        <v>1.011925221714446</v>
+        <v>1.0136039593716</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03471960880143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034488646717547</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020791750505475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9994161620966071</v>
+        <v>0.9996661069366185</v>
       </c>
       <c r="D8">
-        <v>1.020237406457735</v>
+        <v>1.020155850113081</v>
       </c>
       <c r="E8">
-        <v>1.012203204027948</v>
+        <v>1.012425481967552</v>
       </c>
       <c r="F8">
-        <v>1.014697863284413</v>
+        <v>1.014931027653467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046621256568156</v>
+        <v>1.046579842674322</v>
       </c>
       <c r="J8">
-        <v>1.021041313815589</v>
+        <v>1.021283999156886</v>
       </c>
       <c r="K8">
-        <v>1.031150053016867</v>
+        <v>1.031069547357547</v>
       </c>
       <c r="L8">
-        <v>1.023220373927688</v>
+        <v>1.023439732110132</v>
       </c>
       <c r="M8">
-        <v>1.025682356234163</v>
+        <v>1.025912476720704</v>
       </c>
       <c r="N8">
-        <v>1.011009063488852</v>
+        <v>1.012981814425803</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033119058609395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033073239859642</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020395225354026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9900496884959094</v>
+        <v>0.9906721031047817</v>
       </c>
       <c r="D9">
-        <v>1.01405036360136</v>
+        <v>1.014443937061315</v>
       </c>
       <c r="E9">
-        <v>1.004183082100778</v>
+        <v>1.004735605487362</v>
       </c>
       <c r="F9">
-        <v>1.005156023485071</v>
+        <v>1.005736723730327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044578765456572</v>
+        <v>1.044778141318593</v>
       </c>
       <c r="J9">
-        <v>1.015958778027666</v>
+        <v>1.016558608709728</v>
       </c>
       <c r="K9">
-        <v>1.026919523502143</v>
+        <v>1.027306938888076</v>
       </c>
       <c r="L9">
-        <v>1.017208654343295</v>
+        <v>1.017752315216616</v>
       </c>
       <c r="M9">
-        <v>1.018165998050496</v>
+        <v>1.01873740725663</v>
       </c>
       <c r="N9">
-        <v>1.009315826975158</v>
+        <v>1.011738390281845</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030124540015054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030409310394248</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.01962875222013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9835271734378189</v>
+        <v>0.984451403628593</v>
       </c>
       <c r="D10">
-        <v>1.009751949789268</v>
+        <v>1.010504930126914</v>
       </c>
       <c r="E10">
-        <v>0.9986339510609147</v>
+        <v>0.9994542558111128</v>
       </c>
       <c r="F10">
-        <v>0.9985534918632997</v>
+        <v>0.9994164924297705</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043083249493929</v>
+        <v>1.043464101315751</v>
       </c>
       <c r="J10">
-        <v>1.012409954397241</v>
+        <v>1.013295796472547</v>
       </c>
       <c r="K10">
-        <v>1.023947334150874</v>
+        <v>1.024687070283026</v>
       </c>
       <c r="L10">
-        <v>1.013027913824295</v>
+        <v>1.013833370833972</v>
       </c>
       <c r="M10">
-        <v>1.012948912668846</v>
+        <v>1.013796290284247</v>
       </c>
       <c r="N10">
-        <v>1.008134351845413</v>
+        <v>1.010991234980256</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028039945765584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028575520113371</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019083046672377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9806379060944346</v>
+        <v>0.9817535685911742</v>
       </c>
       <c r="D11">
-        <v>1.00785649678845</v>
+        <v>1.008807484859167</v>
       </c>
       <c r="E11">
-        <v>0.9961856085758511</v>
+        <v>0.9971771794652697</v>
       </c>
       <c r="F11">
-        <v>0.9956388669421148</v>
+        <v>0.9966820031683638</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042407612008416</v>
+        <v>1.042888296527027</v>
       </c>
       <c r="J11">
-        <v>1.010838959266628</v>
+        <v>1.011905626661373</v>
       </c>
       <c r="K11">
-        <v>1.022631756559564</v>
+        <v>1.023565194584466</v>
       </c>
       <c r="L11">
-        <v>1.01117981902606</v>
+        <v>1.01215252711157</v>
       </c>
       <c r="M11">
-        <v>1.010643499165446</v>
+        <v>1.011666764492804</v>
       </c>
       <c r="N11">
-        <v>1.00761281601532</v>
+        <v>1.010853362719768</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027142937760835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027818688617223</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018849322864122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9795490871367668</v>
+        <v>0.9807422879305219</v>
       </c>
       <c r="D12">
-        <v>1.007139373502446</v>
+        <v>1.008168441681226</v>
       </c>
       <c r="E12">
-        <v>0.9952638974994108</v>
+        <v>0.9963249789521816</v>
       </c>
       <c r="F12">
-        <v>0.9945421892228025</v>
+        <v>0.9956584148481323</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042148436906806</v>
+        <v>1.042668460416748</v>
       </c>
       <c r="J12">
-        <v>1.010244913088453</v>
+        <v>1.01138463745914</v>
       </c>
       <c r="K12">
-        <v>1.022131060774801</v>
+        <v>1.023140802812065</v>
       </c>
       <c r="L12">
-        <v>1.010482399753014</v>
+        <v>1.011522926882929</v>
       </c>
       <c r="M12">
-        <v>1.009774704621881</v>
+        <v>1.010869268158202</v>
       </c>
       <c r="N12">
-        <v>1.007414896674117</v>
+        <v>1.010817555810055</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02678892244931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.027518630750416</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018760197359631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9797823529929711</v>
+        <v>0.9809586928043024</v>
       </c>
       <c r="D13">
-        <v>1.007292348258179</v>
+        <v>1.008304490693261</v>
       </c>
       <c r="E13">
-        <v>0.9954612100290225</v>
+        <v>0.996507175537409</v>
       </c>
       <c r="F13">
-        <v>0.994777087576402</v>
+        <v>0.9958774181748118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042203673506447</v>
+        <v>1.042715170636353</v>
       </c>
       <c r="J13">
-        <v>1.010371857086722</v>
+        <v>1.011495704537294</v>
       </c>
       <c r="K13">
-        <v>1.022237590104836</v>
+        <v>1.023230795105295</v>
       </c>
       <c r="L13">
-        <v>1.010631557636861</v>
+        <v>1.011657339902855</v>
       </c>
       <c r="M13">
-        <v>1.009960666289444</v>
+        <v>1.011039727860763</v>
       </c>
       <c r="N13">
-        <v>1.007457044434978</v>
+        <v>1.010824262712184</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026861723427378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.027579495949574</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01877902757353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9805477909309104</v>
+        <v>0.9816697558777426</v>
       </c>
       <c r="D14">
-        <v>1.007796861126886</v>
+        <v>1.008754221173398</v>
       </c>
       <c r="E14">
-        <v>0.9961092574806156</v>
+        <v>0.9971064777840036</v>
       </c>
       <c r="F14">
-        <v>0.9955480781045004</v>
+        <v>0.9965971543229909</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042386040251722</v>
+        <v>1.042869935727444</v>
       </c>
       <c r="J14">
-        <v>1.010789655270538</v>
+        <v>1.011862265044036</v>
       </c>
       <c r="K14">
-        <v>1.022590000882573</v>
+        <v>1.023529667572309</v>
       </c>
       <c r="L14">
-        <v>1.011121988141419</v>
+        <v>1.012100209575532</v>
       </c>
       <c r="M14">
-        <v>1.01057152215764</v>
+        <v>1.011600583443143</v>
       </c>
       <c r="N14">
-        <v>1.007596327024262</v>
+        <v>1.010849960768121</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027112334971556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027792386721623</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018841832286637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9810194996050002</v>
+        <v>0.9821086939967473</v>
       </c>
       <c r="D15">
-        <v>1.008109114731817</v>
+        <v>1.009033271315714</v>
       </c>
       <c r="E15">
-        <v>0.9965089839511818</v>
+        <v>0.9974768339518562</v>
       </c>
       <c r="F15">
-        <v>0.9960233748617403</v>
+        <v>0.997041569616844</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042498901054458</v>
+        <v>1.042966063550584</v>
       </c>
       <c r="J15">
-        <v>1.01104776310877</v>
+        <v>1.012089466756685</v>
       </c>
       <c r="K15">
-        <v>1.02280862129715</v>
+        <v>1.023715828089374</v>
       </c>
       <c r="L15">
-        <v>1.011424741774798</v>
+        <v>1.012374297663661</v>
       </c>
       <c r="M15">
-        <v>1.010948329084087</v>
+        <v>1.011947254866642</v>
       </c>
       <c r="N15">
-        <v>1.007682662572699</v>
+        <v>1.010868476099295</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027272845491353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027930513254192</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018881080841468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9837315908052802</v>
+        <v>0.984643652862452</v>
       </c>
       <c r="D16">
-        <v>1.009897326652744</v>
+        <v>1.010637752798206</v>
       </c>
       <c r="E16">
-        <v>0.9988088609283383</v>
+        <v>0.9996182423473923</v>
       </c>
       <c r="F16">
-        <v>0.9987595054925615</v>
+        <v>0.9996110305631599</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043137768035987</v>
+        <v>1.043512286893071</v>
       </c>
       <c r="J16">
-        <v>1.012526966880114</v>
+        <v>1.013401289701103</v>
       </c>
       <c r="K16">
-        <v>1.024053992261535</v>
+        <v>1.024781437830773</v>
       </c>
       <c r="L16">
-        <v>1.013162914021627</v>
+        <v>1.013957694945111</v>
       </c>
       <c r="M16">
-        <v>1.013114449907716</v>
+        <v>1.01395061311913</v>
       </c>
       <c r="N16">
-        <v>1.008175653326912</v>
+        <v>1.011008423880655</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028156583373326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028687443384598</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019104194839068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.985412990149621</v>
+        <v>0.9862267064629306</v>
       </c>
       <c r="D17">
-        <v>1.011006736376961</v>
+        <v>1.011640916927006</v>
       </c>
       <c r="E17">
-        <v>1.000237090605453</v>
+        <v>1.000958702434789</v>
       </c>
       <c r="F17">
-        <v>1.000458544418408</v>
+        <v>1.001217718107295</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043529426338398</v>
+        <v>1.043850330294449</v>
       </c>
       <c r="J17">
-        <v>1.013443501373288</v>
+        <v>1.014224658739057</v>
       </c>
       <c r="K17">
-        <v>1.024824491214386</v>
+        <v>1.025447871530555</v>
       </c>
       <c r="L17">
-        <v>1.014240964041327</v>
+        <v>1.014949942979757</v>
       </c>
       <c r="M17">
-        <v>1.014458538464173</v>
+        <v>1.015204429949187</v>
       </c>
       <c r="N17">
-        <v>1.008481138412233</v>
+        <v>1.01113213816374</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028703977035544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029161500171172</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019243340763701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.986382329321532</v>
+        <v>0.9871437319020018</v>
       </c>
       <c r="D18">
-        <v>1.011643087977985</v>
+        <v>1.012218776338283</v>
       </c>
       <c r="E18">
-        <v>1.001060872086754</v>
+        <v>1.001735894260701</v>
       </c>
       <c r="F18">
-        <v>1.001439172444615</v>
+        <v>1.002149300511947</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043751397004393</v>
+        <v>1.044042769929151</v>
       </c>
       <c r="J18">
-        <v>1.013969854214842</v>
+        <v>1.01470138910626</v>
       </c>
       <c r="K18">
-        <v>1.025263828081485</v>
+        <v>1.02582987903037</v>
       </c>
       <c r="L18">
-        <v>1.014861318588536</v>
+        <v>1.015524731032017</v>
       </c>
       <c r="M18">
-        <v>1.015233110052699</v>
+        <v>1.015931037075976</v>
       </c>
       <c r="N18">
-        <v>1.008655840717337</v>
+        <v>1.011216883964402</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029002853126277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029418704793908</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.01932250228849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9867150979073341</v>
+        <v>0.9874594221876362</v>
       </c>
       <c r="D19">
-        <v>1.011864287198572</v>
+        <v>1.012420609254492</v>
       </c>
       <c r="E19">
-        <v>1.001344158972951</v>
+        <v>1.002003977277978</v>
       </c>
       <c r="F19">
-        <v>1.001775867302599</v>
+        <v>1.002469989163966</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.04382904258003</v>
+        <v>1.044110635767491</v>
       </c>
       <c r="J19">
-        <v>1.014151937236079</v>
+        <v>1.01486726209615</v>
       </c>
       <c r="K19">
-        <v>1.025417860291414</v>
+        <v>1.025964923958134</v>
       </c>
       <c r="L19">
-        <v>1.015075311659204</v>
+        <v>1.015723850659269</v>
       </c>
       <c r="M19">
-        <v>1.015499637953043</v>
+        <v>1.016181907831882</v>
       </c>
       <c r="N19">
-        <v>1.008716853649141</v>
+        <v>1.011249570627143</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029118217421974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02952126432332</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019350842594789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9852329753194198</v>
+        <v>0.9860567493370175</v>
       </c>
       <c r="D20">
-        <v>1.010887663765287</v>
+        <v>1.011532892199267</v>
       </c>
       <c r="E20">
-        <v>1.000084057742736</v>
+        <v>1.000814637890056</v>
       </c>
       <c r="F20">
-        <v>1.000276550377295</v>
+        <v>1.001045162173495</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043487490363374</v>
+        <v>1.043813970930219</v>
       </c>
       <c r="J20">
-        <v>1.01334525360296</v>
+        <v>1.014135946429337</v>
       </c>
       <c r="K20">
-        <v>1.024741730784059</v>
+        <v>1.025375936300986</v>
       </c>
       <c r="L20">
-        <v>1.014125429257521</v>
+        <v>1.014843177981702</v>
       </c>
       <c r="M20">
-        <v>1.014314538722602</v>
+        <v>1.01506965852697</v>
       </c>
       <c r="N20">
-        <v>1.008448333296934</v>
+        <v>1.011117286480207</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028644112548073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029109160926014</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019228297736418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9803272982338367</v>
+        <v>0.9814839714707129</v>
       </c>
       <c r="D21">
-        <v>1.007655097110598</v>
+        <v>1.008641129126485</v>
       </c>
       <c r="E21">
-        <v>0.9959230407365662</v>
+        <v>0.9969517786536657</v>
       </c>
       <c r="F21">
-        <v>0.9953258262679227</v>
+        <v>0.9964078549920826</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042335820060704</v>
+        <v>1.042834182751399</v>
       </c>
       <c r="J21">
-        <v>1.010671192168105</v>
+        <v>1.011776770277461</v>
       </c>
       <c r="K21">
-        <v>1.022492878306634</v>
+        <v>1.023460621340706</v>
       </c>
       <c r="L21">
-        <v>1.010982066219025</v>
+        <v>1.011991131562265</v>
       </c>
       <c r="M21">
-        <v>1.010396296716746</v>
+        <v>1.011457602739618</v>
       </c>
       <c r="N21">
-        <v>1.007557649498884</v>
+        <v>1.010909936990493</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027057324501019</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027758537780338</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018828592839775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9771705851302844</v>
+        <v>0.978541077582642</v>
       </c>
       <c r="D22">
-        <v>1.005573383358376</v>
+        <v>1.006778343863782</v>
       </c>
       <c r="E22">
-        <v>0.9932529808271119</v>
+        <v>0.9944732259020621</v>
       </c>
       <c r="F22">
-        <v>0.9921494581125827</v>
+        <v>0.9934330227293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041577530186941</v>
+        <v>1.042186117300044</v>
       </c>
       <c r="J22">
-        <v>1.008946546827196</v>
+        <v>1.010252897190874</v>
       </c>
       <c r="K22">
-        <v>1.021035233122208</v>
+        <v>1.022216705866708</v>
       </c>
       <c r="L22">
-        <v>1.008959292962793</v>
+        <v>1.010154970136247</v>
       </c>
       <c r="M22">
-        <v>1.007878056648454</v>
+        <v>1.009135704979974</v>
       </c>
       <c r="N22">
-        <v>1.006982248428612</v>
+        <v>1.010763538008608</v>
       </c>
       <c r="Q22">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026013038765621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.026864080650564</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018565492377976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9788450437959151</v>
+        <v>0.9800895732097331</v>
       </c>
       <c r="D23">
-        <v>1.006673051820512</v>
+        <v>1.007753279341699</v>
       </c>
       <c r="E23">
-        <v>0.9946679149823212</v>
+        <v>0.9957750671627669</v>
       </c>
       <c r="F23">
-        <v>0.9938335988655999</v>
+        <v>0.9949982578152745</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041978426397969</v>
+        <v>1.042524217061338</v>
       </c>
       <c r="J23">
-        <v>1.009859267857841</v>
+        <v>1.011047294919502</v>
       </c>
       <c r="K23">
-        <v>1.021803687264374</v>
+        <v>1.022863401083753</v>
       </c>
       <c r="L23">
-        <v>1.010030466882544</v>
+        <v>1.011115923843647</v>
       </c>
       <c r="M23">
-        <v>1.009212541551709</v>
+        <v>1.010354329844358</v>
       </c>
       <c r="N23">
-        <v>1.007285776304303</v>
+        <v>1.010797266027062</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.026546639776245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027310647157947</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018701501303268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9853050606526149</v>
+        <v>0.9861245424120914</v>
       </c>
       <c r="D24">
-        <v>1.010928058611666</v>
+        <v>1.011568341712306</v>
       </c>
       <c r="E24">
-        <v>1.000144394693904</v>
+        <v>1.00087117706497</v>
       </c>
       <c r="F24">
-        <v>1.000349725245747</v>
+        <v>1.001114331090987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.043499657773586</v>
+        <v>1.043823642030796</v>
       </c>
       <c r="J24">
-        <v>1.013380755127322</v>
+        <v>1.014167381081006</v>
       </c>
       <c r="K24">
-        <v>1.024765945159132</v>
+        <v>1.025395304943976</v>
       </c>
       <c r="L24">
-        <v>1.014168975074033</v>
+        <v>1.014883011110695</v>
       </c>
       <c r="M24">
-        <v>1.014370702099131</v>
+        <v>1.01512190604557</v>
       </c>
       <c r="N24">
-        <v>1.008458627658897</v>
+        <v>1.011120468181881</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028633560166303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029092513989904</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019231357812646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9925287363926533</v>
+        <v>0.993042179217657</v>
       </c>
       <c r="D25">
-        <v>1.015694740278737</v>
+        <v>1.015955959564926</v>
       </c>
       <c r="E25">
-        <v>1.006300698719264</v>
+        <v>1.006756441453145</v>
       </c>
       <c r="F25">
-        <v>1.007673840132175</v>
+        <v>1.008152668842858</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045137668349768</v>
+        <v>1.045270077436407</v>
       </c>
       <c r="J25">
-        <v>1.017310181224907</v>
+        <v>1.017805992272656</v>
       </c>
       <c r="K25">
-        <v>1.028054204957758</v>
+        <v>1.028311528276279</v>
       </c>
       <c r="L25">
-        <v>1.01880198555803</v>
+        <v>1.019250770036423</v>
       </c>
       <c r="M25">
-        <v>1.020154186255033</v>
+        <v>1.020625729818901</v>
       </c>
       <c r="N25">
-        <v>1.009767539233445</v>
+        <v>1.012037311376215</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.03095567964048</v>
+        <v>1.031151261897864</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019836540658744</v>
       </c>
     </row>
   </sheetData>
